--- a/data/2024 BPS, Esf, food/7_days.xlsx
+++ b/data/2024 BPS, Esf, food/7_days.xlsx
@@ -64,7 +64,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -77,8 +77,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -96,6 +102,81 @@
       <top style="thin">
         <color indexed="9"/>
       </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
       <bottom style="thin">
         <color indexed="9"/>
       </bottom>
@@ -107,7 +188,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -117,17 +198,32 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -147,6 +243,7 @@
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffe2eeda"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1214,241 +1311,232 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="10" width="11.6719" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.6719" style="1" customWidth="1"/>
+    <col min="2" max="10" width="11.6719" style="1" customWidth="1"/>
     <col min="11" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
+    <row r="1" ht="17.25" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="3">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="3">
         <v>4</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" t="s" s="4">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" t="s" s="3">
         <v>5</v>
       </c>
-      <c r="J1" t="s" s="4">
+      <c r="J1" t="s" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
+    <row r="2" ht="17.25" customHeight="1">
       <c r="A2" s="5">
         <v>0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>100</v>
       </c>
-      <c r="C2" s="5">
-        <v>86.67</v>
-      </c>
-      <c r="D2" s="5">
+      <c r="C2" s="7">
+        <v>88.4444444444444</v>
+      </c>
+      <c r="D2" s="7">
+        <v>98.6666666666667</v>
+      </c>
+      <c r="E2" s="7">
+        <v>88.4444444444444</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="4"/>
+      <c r="I2" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="J2" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1">
+      <c r="A3" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="B3" s="6">
+        <v>100</v>
+      </c>
+      <c r="C3" s="7">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="D3" s="7">
         <v>98</v>
       </c>
-      <c r="E2" s="5">
-        <v>90</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="3"/>
-      <c r="I2" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="J2" s="5">
-        <v>7</v>
-      </c>
+      <c r="E3" s="7">
+        <v>81.3333333333334</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="8"/>
     </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="B3" s="5">
+    <row r="4" ht="17.25" customHeight="1">
+      <c r="A4" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="B4" s="6">
         <v>100</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C4" s="7">
+        <v>92.5</v>
+      </c>
+      <c r="D4" s="7">
+        <v>92.6666666666667</v>
+      </c>
+      <c r="E4" s="7">
+        <v>60.6666666666667</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="J4" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="17.25" customHeight="1">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6">
+        <v>98.6666666666667</v>
+      </c>
+      <c r="C5" s="7">
+        <v>76.8888888888889</v>
+      </c>
+      <c r="D5" s="7">
+        <v>98.6666666666667</v>
+      </c>
+      <c r="E5" s="7">
+        <v>87.1111111111111</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" ht="17.25" customHeight="1">
+      <c r="A6" s="10">
+        <v>10</v>
+      </c>
+      <c r="B6" s="6">
         <v>100</v>
       </c>
-      <c r="D3" s="5">
-        <v>96</v>
-      </c>
-      <c r="E3" s="5">
-        <v>84.09</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="5"/>
+      <c r="C6" s="7">
+        <v>89.3333333333334</v>
+      </c>
+      <c r="D6" s="7">
+        <v>92.8888888888889</v>
+      </c>
+      <c r="E6" s="7">
+        <v>79.1111111111111</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="8"/>
     </row>
-    <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="B4" s="5">
+    <row r="7" ht="17.25" customHeight="1">
+      <c r="A7" s="10">
         <v>100</v>
       </c>
-      <c r="C4" s="5">
-        <v>92</v>
-      </c>
-      <c r="D4" s="5">
-        <v>95.83</v>
-      </c>
-      <c r="E4" s="5">
-        <v>75</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" t="s" s="4">
-        <v>8</v>
-      </c>
-      <c r="J4" s="6">
-        <v>10</v>
-      </c>
+      <c r="B7" s="6">
+        <v>97.7777777777778</v>
+      </c>
+      <c r="C7" s="7">
+        <v>79.1111111111111</v>
+      </c>
+      <c r="D7" s="7">
+        <v>96.4444444444444</v>
+      </c>
+      <c r="E7" s="7">
+        <v>74.2222222222222</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="8"/>
     </row>
-    <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5">
-        <v>98</v>
-      </c>
-      <c r="C5" s="5">
-        <v>77.33</v>
-      </c>
-      <c r="D5" s="5">
-        <v>100</v>
-      </c>
-      <c r="E5" s="5">
-        <v>91.3</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="6"/>
+    <row r="8" ht="17.25" customHeight="1">
+      <c r="A8" s="10">
+        <v>1000</v>
+      </c>
+      <c r="B8" s="6">
+        <v>68</v>
+      </c>
+      <c r="C8" s="7">
+        <v>47.1111111111111</v>
+      </c>
+      <c r="D8" s="7">
+        <v>61.7777777777778</v>
+      </c>
+      <c r="E8" s="7">
+        <v>44.4444444444444</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="8"/>
     </row>
-    <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" s="5">
-        <v>10</v>
-      </c>
-      <c r="B6" s="5">
-        <v>100</v>
-      </c>
-      <c r="C6" s="5">
-        <v>92</v>
-      </c>
-      <c r="D6" s="5">
-        <v>97.92</v>
-      </c>
-      <c r="E6" s="5">
-        <v>82.65000000000001</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="5"/>
+    <row r="9" ht="17.25" customHeight="1">
+      <c r="A9" s="10">
+        <v>10000</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="8"/>
     </row>
-    <row r="7" ht="18.75" customHeight="1">
-      <c r="A7" s="5">
-        <v>100</v>
-      </c>
-      <c r="B7" s="5">
-        <v>99</v>
-      </c>
-      <c r="C7" s="5">
-        <v>72.78</v>
-      </c>
-      <c r="D7" s="5">
-        <v>100</v>
-      </c>
-      <c r="E7" s="5">
-        <v>71.83</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" ht="18.75" customHeight="1">
-      <c r="A8" s="5">
-        <v>1000</v>
-      </c>
-      <c r="B8" s="5">
-        <v>72.08</v>
-      </c>
-      <c r="C8" s="5">
-        <v>35.87</v>
-      </c>
-      <c r="D8" s="5">
-        <v>56.33</v>
-      </c>
-      <c r="E8" s="5">
-        <v>36</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" ht="18.75" customHeight="1">
-      <c r="A9" s="5">
-        <v>10000</v>
-      </c>
-      <c r="B9" s="5">
-        <v>0</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" ht="19.5" customHeight="1">
-      <c r="A10" s="5">
-        <v>31600</v>
-      </c>
-      <c r="B10" s="5">
-        <v>0</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="5"/>
+    <row r="10" ht="18" customHeight="1">
+      <c r="A10" s="11"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
